--- a/output1.xlsx
+++ b/output1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet name" sheetId="1" r:id="rId1"/>
+    <sheet name="first_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -136,7 +136,7 @@
         <v>44562.40638888889</v>
       </c>
       <c r="G2" s="1">
-        <v>0.47916666666666674</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3">
@@ -165,7 +165,7 @@
         <v>44562.49334490741</v>
       </c>
       <c r="G3" s="1">
-        <v>0.47916666666666674</v>
+        <v>0.38541666666666674</v>
       </c>
     </row>
     <row r="4">
@@ -193,8 +193,10 @@
       <c r="F4" s="1">
         <v>44562.4171875</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.45833333333333326</v>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -222,8 +224,10 @@
       <c r="F5" s="1">
         <v>44562.380277777775</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.47916666666666674</v>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -252,7 +256,7 @@
         <v>44562.49594907407</v>
       </c>
       <c r="G6" s="1">
-        <v>0.47916666666666674</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7">
@@ -281,7 +285,7 @@
         <v>44562.414351851854</v>
       </c>
       <c r="G7" s="1">
-        <v>0.47916666666666674</v>
+        <v>0.38541666666666674</v>
       </c>
     </row>
     <row r="8">
@@ -310,7 +314,7 @@
         <v>44562.411631944444</v>
       </c>
       <c r="G8" s="1">
-        <v>0.47916666666666674</v>
+        <v>0.38541666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/output1.xlsx
+++ b/output1.xlsx
@@ -16,7 +16,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts>
-    <numFmt numFmtId="1001" formatCode="hh/mm/ss"/>
+    <numFmt numFmtId="1001" formatCode="yyyy-mm-dd hh:mm"/>
+    <numFmt numFmtId="1002" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts>
     <font>
@@ -50,6 +51,7 @@
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xfId="0" numFmtId="1001"/>
+    <xf xfId="0" numFmtId="1002"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,7 +137,7 @@
       <c r="F2" s="1">
         <v>44562.40638888889</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.375</v>
       </c>
     </row>
@@ -164,7 +166,7 @@
       <c r="F3" s="1">
         <v>44562.49334490741</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.38541666666666674</v>
       </c>
     </row>
@@ -193,7 +195,7 @@
       <c r="F4" s="1">
         <v>44562.4171875</v>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"/>
         </is>
@@ -224,7 +226,7 @@
       <c r="F5" s="1">
         <v>44562.380277777775</v>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"/>
         </is>
@@ -255,7 +257,7 @@
       <c r="F6" s="1">
         <v>44562.49594907407</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.375</v>
       </c>
     </row>
@@ -284,7 +286,7 @@
       <c r="F7" s="1">
         <v>44562.414351851854</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>0.38541666666666674</v>
       </c>
     </row>
@@ -313,7 +315,7 @@
       <c r="F8" s="1">
         <v>44562.411631944444</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.38541666666666674</v>
       </c>
     </row>
